--- a/ConceptMap-R5-Reference-elements-for-R4-Reference.xlsx
+++ b/ConceptMap-R5-Reference-elements-for-R4-Reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.0825102-06:00</t>
+    <t>2026-02-09T22:05:44.169754-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,9 +132,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Reference#Reference.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Reference.type</t>
-  </si>
-  <si>
     <t>Reference.identifier</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Reference#Reference.identifier</t>
-  </si>
-  <si>
-    <t>Basic.identifier</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -410,7 +404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,55 +483,29 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Reference-elements-for-R4-Reference.xlsx
+++ b/ConceptMap-R5-Reference-elements-for-R4-Reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.169754-06:00</t>
+    <t>2026-02-17T14:42:27.501765-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
